--- a/app/src/main/assets/res/芬莱作业过程.xlsx
+++ b/app/src/main/assets/res/芬莱作业过程.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="166">
   <si>
     <t>一、基本信息</t>
   </si>
@@ -394,6 +394,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">通道检查：主一、主二光纤通道A、B的收、发光功率测试、通道传输延时记录。 
 </t>
     </r>
@@ -412,6 +418,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">光电转换装置：装置的版本；
 </t>
     </r>
@@ -426,14 +438,46 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">逆变电源检查、开入量检查、开出量检查；通道A、B的收、发光功率测试、通道传输延时检查  填写附表3第2项
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逆变电源检查、开入量检查、开出量检查；通道A、B的收、发光功率测试、通道传输延时检查  填写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>附表3第2项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
+    </r>
   </si>
   <si>
     <t>开关机构三相不一致</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">验证开关机构三相不一致功能，时间符合整定要求，双跳闸线圈，分2次试验。 </t>
     </r>
     <r>
@@ -487,57 +531,6 @@
     <t>记录内容：无</t>
   </si>
   <si>
-    <t>三、作业终结</t>
-  </si>
-  <si>
-    <t>项目</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>结果</t>
-  </si>
-  <si>
-    <t>恢复现场</t>
-  </si>
-  <si>
-    <t>1）检查试验记录有无漏试项目，试验数据、试验结论是否完整正确。盖好所有装置及辅助设备的盖子，对必要的元件采取防尘措施；</t>
-  </si>
-  <si>
-    <t>2）检查保护装置处于正常运行状态（各种运行灯、正常灯点亮）。</t>
-  </si>
-  <si>
-    <t>结论</t>
-  </si>
-  <si>
-    <t>是否正常，结果打勾</t>
-  </si>
-  <si>
-    <t>正常□   不正常□</t>
-  </si>
-  <si>
-    <t>发现问题</t>
-  </si>
-  <si>
-    <t>有□     无□</t>
-  </si>
-  <si>
-    <t>处理结果</t>
-  </si>
-  <si>
-    <t>确认(   )</t>
-  </si>
-  <si>
-    <t>风险变化情况</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>审核签名</t>
-  </si>
-  <si>
     <t>附表1：绝缘检查：</t>
   </si>
   <si>
@@ -545,6 +538,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋_GB2312"/>
+        <charset val="134"/>
+      </rPr>
       <t>用1000V兆欧表测量装置绝缘电阻值，要求阻值均大于1M</t>
     </r>
     <r>
@@ -686,6 +685,9 @@
     <t>开关辅助保护</t>
   </si>
   <si>
+    <t>讯号装置</t>
+  </si>
+  <si>
     <t>附表3：光功率测试：</t>
   </si>
   <si>
@@ -737,24 +739,7 @@
     <t>附表4：开关机构三相不一致保护动作试验：</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开关</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>三相不一致</t>
-    </r>
+    <t>开关三相不一致</t>
   </si>
   <si>
     <t>第一组跳闸mS</t>
@@ -764,6 +749,57 @@
   </si>
   <si>
     <t>动作时间记录</t>
+  </si>
+  <si>
+    <t>三、作业终结</t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>恢复现场</t>
+  </si>
+  <si>
+    <t>1）检查试验记录有无漏试项目，试验数据、试验结论是否完整正确。盖好所有装置及辅助设备的盖子，对必要的元件采取防尘措施；</t>
+  </si>
+  <si>
+    <t>2）检查保护装置处于正常运行状态（各种运行灯、正常灯点亮）。</t>
+  </si>
+  <si>
+    <t>结论</t>
+  </si>
+  <si>
+    <t>是否正常，结果打勾</t>
+  </si>
+  <si>
+    <t>正常□   不正常□</t>
+  </si>
+  <si>
+    <t>发现问题</t>
+  </si>
+  <si>
+    <t>有□     无□</t>
+  </si>
+  <si>
+    <t>处理结果</t>
+  </si>
+  <si>
+    <t>确认(   )</t>
+  </si>
+  <si>
+    <t>风险变化情况</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>审核签名</t>
   </si>
 </sst>
 </file>
@@ -771,12 +807,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,6 +841,11 @@
     </font>
     <font>
       <sz val="10.5"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="仿宋_GB2312"/>
       <charset val="134"/>
@@ -817,8 +858,114 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,114 +988,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -982,7 +1023,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,7 +1095,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,19 +1149,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,139 +1203,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,6 +1315,63 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1298,30 +1396,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1336,49 +1410,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1387,137 +1428,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1572,11 +1613,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1604,52 +1697,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1972,8 +2019,8 @@
   <sheetPr/>
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2617,7 +2664,7 @@
       <c r="B47" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="20" t="s">
         <v>86</v>
       </c>
       <c r="D47" s="19" t="s">
@@ -2631,7 +2678,7 @@
       <c r="B48" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="20" t="s">
         <v>88</v>
       </c>
       <c r="D48" s="19" t="s">
@@ -2645,7 +2692,7 @@
       <c r="B49" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="21" t="s">
         <v>90</v>
       </c>
       <c r="D49" s="19" t="s">
@@ -2723,16 +2770,16 @@
       </c>
     </row>
     <row r="55" ht="29.55" spans="1:4">
-      <c r="A55" s="21">
+      <c r="A55" s="22">
         <v>46</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="23" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2798,514 +2845,514 @@
       </c>
     </row>
     <row r="62" ht="15.15" spans="1:4">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="24">
+        <v>1</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" ht="15.15" spans="1:4">
+      <c r="A63" s="27">
+        <v>2</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" ht="15.15" spans="1:4">
+      <c r="A64" s="27">
+        <v>3</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" ht="14.55" spans="1:1">
+      <c r="A66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" ht="29.55" spans="1:6">
+      <c r="A67" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" ht="29.55" spans="1:4">
-      <c r="A63" s="24">
+      <c r="B67" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" ht="15.15" spans="1:6">
+      <c r="A68" s="27">
         <v>1</v>
       </c>
-      <c r="B63" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="D63" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" ht="15.15" spans="1:4">
-      <c r="A64" s="24"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D64" s="25"/>
-    </row>
-    <row r="65" ht="15.15" spans="1:4">
-      <c r="A65" s="24">
+      <c r="B68" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+    </row>
+    <row r="69" ht="15.15" spans="1:6">
+      <c r="A69" s="27">
         <v>2</v>
       </c>
-      <c r="B65" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66" ht="15.15" spans="1:4">
-      <c r="A66" s="24">
-        <v>3</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="67" ht="15.15" spans="1:4">
-      <c r="A67" s="24">
-        <v>4</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="68" ht="15.15" spans="1:4">
-      <c r="A68" s="29">
-        <v>5</v>
-      </c>
-      <c r="B68" s="25" t="s">
+      <c r="B69" s="28" t="s">
         <v>125</v>
-      </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-    </row>
-    <row r="69" ht="15.15" spans="1:4">
-      <c r="A69" s="30">
-        <v>6</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>126</v>
       </c>
       <c r="C69" s="28"/>
       <c r="D69" s="28"/>
-    </row>
-    <row r="70" ht="15.15" spans="1:4">
-      <c r="A70" s="24">
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+    </row>
+    <row r="70" ht="15.15" spans="1:6">
+      <c r="A70" s="27">
+        <v>3</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+    </row>
+    <row r="71" ht="15.15" spans="1:6">
+      <c r="A71" s="27">
+        <v>4</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="31"/>
+    </row>
+    <row r="73" ht="29.55" spans="1:1">
+      <c r="A73" s="32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" ht="15.15" spans="1:6">
+      <c r="A74" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+    </row>
+    <row r="75" ht="15.15" spans="1:6">
+      <c r="A75" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F75" s="35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" ht="15.15" spans="1:6">
+      <c r="A76" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="29">
+        <v>-3.39</v>
+      </c>
+      <c r="C76" s="36">
+        <v>-9.03</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E76" s="29">
+        <v>-7.01</v>
+      </c>
+      <c r="F76" s="36">
+        <v>-12.26</v>
+      </c>
+    </row>
+    <row r="77" ht="15.15" spans="1:6">
+      <c r="A77" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="29">
+        <v>-24.32</v>
+      </c>
+      <c r="C77" s="36">
+        <v>-12.08</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E77" s="29">
+        <v>-21.23</v>
+      </c>
+      <c r="F77" s="36">
+        <v>-14.78</v>
+      </c>
+    </row>
+    <row r="78" ht="15.15" spans="1:6">
+      <c r="A78" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" s="29">
+        <v>-9.46</v>
+      </c>
+      <c r="C78" s="36">
+        <v>-9.57</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" s="29">
+        <v>-5.97</v>
+      </c>
+      <c r="F78" s="36">
+        <v>-7.53</v>
+      </c>
+    </row>
+    <row r="79" ht="15.15" spans="1:6">
+      <c r="A79" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79" s="29">
+        <v>-22.84</v>
+      </c>
+      <c r="C79" s="36">
+        <v>-13.47</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" s="29">
+        <v>-18.52</v>
+      </c>
+      <c r="F79" s="36">
+        <v>-12.13</v>
+      </c>
+    </row>
+    <row r="80" ht="15.15" spans="1:6">
+      <c r="A80" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" s="29">
+        <v>160</v>
+      </c>
+      <c r="C80" s="36"/>
+      <c r="D80" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E80" s="29">
+        <v>263</v>
+      </c>
+      <c r="F80" s="36">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="81" ht="15.15" spans="1:6">
+      <c r="A81" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" s="29">
+        <v>0</v>
+      </c>
+      <c r="C81" s="36">
+        <v>0</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81" s="29">
+        <v>0</v>
+      </c>
+      <c r="F81" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" ht="15.15" spans="1:6">
+      <c r="A82" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+    </row>
+    <row r="83" ht="15.15" spans="1:6">
+      <c r="A83" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="35"/>
+    </row>
+    <row r="84" ht="15.15" spans="1:6">
+      <c r="A84" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D84" s="29"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="37"/>
+    </row>
+    <row r="85" ht="15.15" spans="1:6">
+      <c r="A85" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C85" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D85" s="29"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="37"/>
+    </row>
+    <row r="86" ht="15.15" spans="1:6">
+      <c r="A86" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D86" s="29"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="37"/>
+    </row>
+    <row r="87" ht="15.15" spans="1:6">
+      <c r="A87" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C87" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D87" s="29"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="37"/>
+    </row>
+    <row r="88" ht="15.15" spans="1:6">
+      <c r="A88" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="36"/>
+    </row>
+    <row r="89" ht="15.15" spans="1:6">
+      <c r="A89" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="31"/>
+    </row>
+    <row r="91" ht="43.95" spans="1:1">
+      <c r="A91" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" ht="15.15" spans="1:3">
+      <c r="A92" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" s="35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" ht="15.15" spans="1:3">
+      <c r="A93" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" s="36"/>
+      <c r="C93" s="31"/>
+    </row>
+    <row r="95" ht="14.55" spans="1:1">
+      <c r="A95" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" ht="15.15" spans="1:4">
+      <c r="A96" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C96" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" ht="29.55" spans="1:4">
+      <c r="A97" s="42">
+        <v>1</v>
+      </c>
+      <c r="B97" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C97" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D97" s="43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" ht="15.15" spans="1:4">
+      <c r="A98" s="42"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D98" s="43"/>
+    </row>
+    <row r="99" ht="15.15" spans="1:4">
+      <c r="A99" s="42">
+        <v>2</v>
+      </c>
+      <c r="B99" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D99" s="43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" ht="15.15" spans="1:4">
+      <c r="A100" s="42">
+        <v>3</v>
+      </c>
+      <c r="B100" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C100" s="46"/>
+      <c r="D100" s="43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" ht="15.15" spans="1:4">
+      <c r="A101" s="42">
+        <v>4</v>
+      </c>
+      <c r="B101" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C101" s="46"/>
+      <c r="D101" s="43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="102" ht="15.15" spans="1:4">
+      <c r="A102" s="47">
+        <v>5</v>
+      </c>
+      <c r="B102" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+    </row>
+    <row r="103" ht="15.15" spans="1:4">
+      <c r="A103" s="48">
+        <v>6</v>
+      </c>
+      <c r="B103" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C103" s="46"/>
+      <c r="D103" s="46"/>
+    </row>
+    <row r="104" ht="15.15" spans="1:4">
+      <c r="A104" s="42">
         <v>7</v>
       </c>
-      <c r="B70" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="73" ht="15.15" spans="1:4">
-      <c r="A73" s="32">
-        <v>1</v>
-      </c>
-      <c r="B73" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C73" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D73" s="34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="74" ht="15.15" spans="1:4">
-      <c r="A74" s="35">
-        <v>2</v>
-      </c>
-      <c r="B74" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="D74" s="38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="75" ht="15.15" spans="1:4">
-      <c r="A75" s="35">
-        <v>3</v>
-      </c>
-      <c r="B75" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="D75" s="38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="77" ht="14.55" spans="1:1">
-      <c r="A77" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="78" ht="29.55" spans="1:6">
-      <c r="A78" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D78" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="E78" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="F78" s="33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="79" ht="15.15" spans="1:6">
-      <c r="A79" s="35">
-        <v>1</v>
-      </c>
-      <c r="B79" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-    </row>
-    <row r="80" ht="15.15" spans="1:6">
-      <c r="A80" s="35">
-        <v>2</v>
-      </c>
-      <c r="B80" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-    </row>
-    <row r="81" ht="15.15" spans="1:6">
-      <c r="A81" s="35">
-        <v>3</v>
-      </c>
-      <c r="B81" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-    </row>
-    <row r="82" ht="15.15" spans="1:6">
-      <c r="A82" s="35">
-        <v>4</v>
-      </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="31"/>
-    </row>
-    <row r="84" ht="29.55" spans="1:1">
-      <c r="A84" s="39" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="85" ht="15.15" spans="1:6">
-      <c r="A85" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-    </row>
-    <row r="86" ht="15.15" spans="1:6">
-      <c r="A86" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="B86" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="C86" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="D86" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="E86" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="F86" s="42" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="87" ht="15.15" spans="1:6">
-      <c r="A87" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="B87" s="37">
-        <v>-3.39</v>
-      </c>
-      <c r="C87" s="43">
-        <v>-9.03</v>
-      </c>
-      <c r="D87" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="E87" s="37">
-        <v>-7.01</v>
-      </c>
-      <c r="F87" s="43">
-        <v>-12.26</v>
-      </c>
-    </row>
-    <row r="88" ht="15.15" spans="1:6">
-      <c r="A88" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="B88" s="37">
-        <v>-24.32</v>
-      </c>
-      <c r="C88" s="43">
-        <v>-12.08</v>
-      </c>
-      <c r="D88" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E88" s="37">
-        <v>-21.23</v>
-      </c>
-      <c r="F88" s="43">
-        <v>-14.78</v>
-      </c>
-    </row>
-    <row r="89" ht="15.15" spans="1:6">
-      <c r="A89" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="B89" s="37">
-        <v>-9.46</v>
-      </c>
-      <c r="C89" s="43">
-        <v>-9.57</v>
-      </c>
-      <c r="D89" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="E89" s="37">
-        <v>-5.97</v>
-      </c>
-      <c r="F89" s="43">
-        <v>-7.53</v>
-      </c>
-    </row>
-    <row r="90" ht="15.15" spans="1:6">
-      <c r="A90" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="B90" s="37">
-        <v>-22.84</v>
-      </c>
-      <c r="C90" s="43">
-        <v>-13.47</v>
-      </c>
-      <c r="D90" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="E90" s="37">
-        <v>-18.52</v>
-      </c>
-      <c r="F90" s="43">
-        <v>-12.13</v>
-      </c>
-    </row>
-    <row r="91" ht="15.15" spans="1:6">
-      <c r="A91" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="B91" s="37">
-        <v>160</v>
-      </c>
-      <c r="C91" s="43">
-        <v>850</v>
-      </c>
-      <c r="D91" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="E91" s="37">
-        <v>263</v>
-      </c>
-      <c r="F91" s="43">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="92" ht="15.15" spans="1:6">
-      <c r="A92" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="B92" s="37">
-        <v>0</v>
-      </c>
-      <c r="C92" s="43">
-        <v>0</v>
-      </c>
-      <c r="D92" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="37">
-        <v>0</v>
-      </c>
-      <c r="F92" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" ht="15.15" spans="1:6">
-      <c r="A93" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="B93" s="41"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-    </row>
-    <row r="94" ht="15.15" spans="1:6">
-      <c r="A94" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="B94" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="C94" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="D94" s="34"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="42"/>
-    </row>
-    <row r="95" ht="15.15" spans="1:6">
-      <c r="A95" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="B95" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C95" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D95" s="37"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="44"/>
-    </row>
-    <row r="96" ht="15.15" spans="1:6">
-      <c r="A96" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="B96" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C96" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D96" s="37"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="44"/>
-    </row>
-    <row r="97" ht="15.15" spans="1:6">
-      <c r="A97" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="B97" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C97" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D97" s="37"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="44"/>
-    </row>
-    <row r="98" ht="15.15" spans="1:6">
-      <c r="A98" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="B98" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C98" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D98" s="37"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="44"/>
-    </row>
-    <row r="99" ht="15.15" spans="1:6">
-      <c r="A99" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="B99" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C99" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D99" s="37"/>
-      <c r="E99" s="37"/>
-      <c r="F99" s="43"/>
-    </row>
-    <row r="100" ht="15.15" spans="1:6">
-      <c r="A100" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="B100" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C100" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D100" s="37"/>
-      <c r="E100" s="37"/>
-      <c r="F100" s="31"/>
-    </row>
-    <row r="102" ht="43.95" spans="1:1">
-      <c r="A102" s="39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="103" ht="15.15" spans="1:3">
-      <c r="A103" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="B103" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="C103" s="42" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="104" ht="15.15" spans="1:3">
-      <c r="A104" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="B104" s="43"/>
+      <c r="B104" s="43" t="s">
+        <v>165</v>
+      </c>
       <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3313,16 +3360,16 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="D97:D98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/app/src/main/assets/res/芬莱作业过程.xlsx
+++ b/app/src/main/assets/res/芬莱作业过程.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="167">
   <si>
     <t>一、基本信息</t>
   </si>
@@ -46,7 +46,10 @@
     <t>本次定检性质</t>
   </si>
   <si>
-    <t>全检□       部检□</t>
+    <t>全检\部检</t>
+  </si>
+  <si>
+    <t>备注：定检性质在全检与定检中选择填写其中之一</t>
   </si>
   <si>
     <t>二、作业过程</t>
@@ -358,36 +361,13 @@
     <t>信号回路检查</t>
   </si>
   <si>
-    <t>检查以下信号，应与后台项一致：
-主一、主二、辅助保护、远方讯号装置闭锁
-主一、主二、辅助保护、远方讯号装置异常
-主一、主二保护、远方讯号通道告警
-主一、主二、辅助保护跳闸
-主一、主二保护启动重合闸
-切换继电器失压
-失灵及辅助保护启动失灵
-操作箱事故总信号
-操作箱第一、二组控制回路断线
-操作箱第一、二组电源断线
-操作箱第一、二组跳闸
-开关异常信号（SF6气压异常等）</t>
+    <t>检查以下信号，应与后台项一致：主一、主二、辅助保护、远方讯号装置闭锁，主一、主二、辅助保护、远方讯号装置异常，主一、主二保护、远方讯号通道告警，主一、主二、辅助保护跳闸，主一、主二保护启动重合闸，切换继电器失压，失灵及辅助保护启动失灵，操作箱事故总信号，操作箱第一、二组控制回路断线，操作箱第一、二组电源断线，操作箱第一、二组跳闸，开关异常信号（SF6气压异常等）</t>
   </si>
   <si>
     <t>录波回路检查</t>
   </si>
   <si>
-    <t>检查以下录波开入信号：
-主一保护A、B、C相跳闸
-主二保护A、B、C相跳闸
-失灵及辅助保护跳闸
-通道一、通道二、光电转换装置收信
-断路器A、B、C相位置
-断路器操作箱手跳
-远方启动跳闸出口
-失灵启动跳闸出口
-A、B、C相重合闸动作
-三相重合闸动作（综重方式）
-变高开关机构三相不一致动作</t>
+    <t>检查以下录波开入信号：主一保护A、B、C相跳闸，主二保护A、B、C相跳闸，失灵及辅助保护跳闸，通道一、通道二、光电转换装置收信，断路器A、B、C相位置，断路器操作箱手跳，远方启动跳闸出口，失灵启动跳闸出口，A、B、C相重合闸动作，三相重合闸动作（综重方式），变高开关机构三相不一致动作</t>
   </si>
   <si>
     <t>自带光纤接口保护装置的通道检验</t>
@@ -424,8 +404,7 @@
         <rFont val="仿宋"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">光电转换装置：装置的版本；
-</t>
+      <t>检验：光电转换装置：装置的版本；</t>
     </r>
     <r>
       <rPr>
@@ -445,7 +424,7 @@
         <rFont val="仿宋"/>
         <charset val="134"/>
       </rPr>
-      <t>逆变电源检查、开入量检查、开出量检查；通道A、B的收、发光功率测试、通道传输延时检查  填写</t>
+      <t>检验：逆变电源检查、开入量检查、开出量检查；通道A、B的收、发光功率测试、通道传输延时检查  填写</t>
     </r>
     <r>
       <rPr>
@@ -733,9 +712,6 @@
     <t>项   目3</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>附表4：开关机构三相不一致保护动作试验：</t>
   </si>
   <si>
@@ -775,16 +751,19 @@
     <t>结论</t>
   </si>
   <si>
-    <t>是否正常，结果打勾</t>
-  </si>
-  <si>
-    <t>正常□   不正常□</t>
+    <t>是否正常，填写对应答案</t>
+  </si>
+  <si>
+    <t>正常\不正常</t>
   </si>
   <si>
     <t>发现问题</t>
   </si>
   <si>
-    <t>有□     无□</t>
+    <t>有无发现问题，填写对应内容与结果</t>
+  </si>
+  <si>
+    <t>有\无</t>
   </si>
   <si>
     <t>处理结果</t>
@@ -807,8 +786,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -866,9 +845,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -882,9 +884,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -899,7 +914,31 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -914,21 +953,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -941,62 +973,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1014,7 +993,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1023,7 +1002,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,97 +1098,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,37 +1140,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,30 +1164,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1283,6 +1268,26 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1316,8 +1321,71 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1337,35 +1405,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1380,46 +1424,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1428,137 +1442,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1580,6 +1594,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1607,22 +1627,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1647,6 +1670,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
@@ -1665,6 +1694,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -1683,21 +1719,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2017,17 +2063,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q104"/>
+  <dimension ref="A1:Q105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A71" sqref="$A71:$XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="17.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="17.3796296296296" customWidth="1"/>
-    <col min="3" max="3" width="69.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="69.3796296296296" customWidth="1"/>
     <col min="4" max="4" width="27.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2041,7 +2087,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" ht="30.3" customHeight="1" spans="1:6">
+    <row r="2" ht="30.4" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2101,84 +2147,92 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="16.65" customHeight="1" spans="1:6">
-      <c r="A8" s="9" t="s">
+    <row r="7" ht="38.25" customHeight="1" spans="1:4">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" customFormat="1" ht="16.65" customHeight="1" spans="1:4">
-      <c r="A9" s="10" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="16.7" customHeight="1" spans="1:6">
+      <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" ht="16.7" customHeight="1" spans="1:4">
+      <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" customFormat="1" ht="17.4" customHeight="1" spans="1:4">
-      <c r="A10" s="12">
+      <c r="D9" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="17.45" customHeight="1" spans="1:4">
+      <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" customFormat="1" ht="16.65" customHeight="1" spans="1:4">
-      <c r="A11" s="14">
+      <c r="D10" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="16.7" customHeight="1" spans="1:4">
+      <c r="A11" s="16">
         <v>2</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="1" ht="16.65" customHeight="1" spans="1:4">
-      <c r="A12" s="12">
+      <c r="D11" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="16.7" customHeight="1" spans="1:4">
+      <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:17">
+      <c r="A13" s="18">
+        <v>4</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="15.9" customHeight="1" spans="1:17">
-      <c r="A13" s="16">
-        <v>4</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2195,1055 +2249,1001 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" ht="29.55" spans="1:4">
-      <c r="A14" s="12">
+      <c r="A14" s="14">
         <v>5</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" ht="29.55" spans="1:4">
+      <c r="A15" s="14">
+        <v>6</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" ht="29.55" spans="1:4">
+      <c r="A16" s="14">
+        <v>7</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" ht="29.55" spans="1:4">
+      <c r="A17" s="20">
+        <v>8</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" ht="43.95" spans="1:6">
+      <c r="A18" s="18">
+        <v>9</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" ht="43.95" spans="1:4">
+      <c r="A19" s="14">
+        <v>10</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" ht="43.95" spans="1:4">
+      <c r="A20" s="14">
+        <v>11</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" ht="29.55" spans="1:4">
+      <c r="A21" s="14">
+        <v>12</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" ht="29.55" spans="1:4">
+      <c r="A22" s="14">
+        <v>13</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" ht="29.55" spans="1:4">
+      <c r="A23" s="14">
+        <v>14</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" ht="43.95" spans="1:4">
+      <c r="A24" s="14">
+        <v>15</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" ht="43.95" spans="1:4">
+      <c r="A25" s="14">
+        <v>16</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" ht="29.55" spans="1:4">
+      <c r="A26" s="14">
+        <v>17</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" ht="29.55" spans="1:4">
+      <c r="A27" s="14">
+        <v>18</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" ht="29.55" spans="1:4">
+      <c r="A28" s="20">
+        <v>19</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" ht="50.25" customHeight="1" spans="1:4">
+      <c r="A29" s="18">
+        <v>20</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" ht="43.95" spans="1:4">
+      <c r="A30" s="14">
+        <v>21</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" ht="43.95" spans="1:4">
+      <c r="A31" s="14">
+        <v>22</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" ht="29.55" spans="1:4">
+      <c r="A32" s="14">
+        <v>23</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" ht="29.55" spans="1:4">
+      <c r="A33" s="14">
+        <v>24</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" ht="29.55" spans="1:4">
+      <c r="A34" s="14">
+        <v>25</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" ht="43.95" spans="1:4">
+      <c r="A35" s="14">
         <v>26</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="B35" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" ht="43.95" spans="1:4">
+      <c r="A36" s="14">
         <v>27</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" ht="29.55" spans="1:4">
-      <c r="A15" s="12">
-        <v>6</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="B36" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" ht="29.55" spans="1:4">
+      <c r="A37" s="14">
         <v>28</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="B37" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" ht="29.55" spans="1:4">
+      <c r="A38" s="14">
         <v>29</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" ht="29.55" spans="1:4">
-      <c r="A16" s="12">
-        <v>7</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="B38" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" ht="43.95" spans="1:4">
+      <c r="A39" s="20">
         <v>30</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="B39" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" ht="43.95" spans="1:4">
+      <c r="A40" s="18">
         <v>31</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" ht="29.55" spans="1:4">
-      <c r="A17" s="18">
-        <v>8</v>
-      </c>
-      <c r="B17" s="19" t="s">
+      <c r="B40" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" ht="43.95" spans="1:4">
+      <c r="A41" s="14">
         <v>32</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="B41" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" ht="43.95" spans="1:4">
+      <c r="A42" s="14">
         <v>33</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" ht="43.95" spans="1:6">
-      <c r="A18" s="16">
-        <v>9</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="B42" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" ht="43.95" spans="1:4">
+      <c r="A43" s="14">
         <v>34</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="B43" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" ht="43.95" spans="1:4">
+      <c r="A44" s="14">
         <v>35</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" ht="43.95" spans="1:4">
-      <c r="A19" s="12">
-        <v>10</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="B44" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" ht="43.95" spans="1:4">
+      <c r="A45" s="14">
         <v>36</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="B45" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" ht="72.75" spans="1:4">
+      <c r="A46" s="20">
         <v>37</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" ht="43.95" spans="1:4">
-      <c r="A20" s="12">
-        <v>11</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="B46" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" ht="43.95" spans="1:4">
+      <c r="A47" s="20">
         <v>38</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="B47" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" ht="87.15" spans="1:4">
+      <c r="A48" s="20">
         <v>39</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" ht="29.55" spans="1:4">
-      <c r="A21" s="12">
-        <v>12</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="B48" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" ht="72.75" spans="1:4">
+      <c r="A49" s="20">
         <v>40</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="B49" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" ht="43.95" spans="1:4">
+      <c r="A50" s="20">
         <v>41</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="B50" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" ht="29.55" spans="1:4">
+      <c r="A51" s="20">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" ht="29.55" spans="1:4">
-      <c r="A22" s="12">
-        <v>13</v>
-      </c>
-      <c r="B22" s="13" t="s">
+      <c r="B51" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" ht="43.95" spans="1:4">
+      <c r="A52" s="18">
         <v>43</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="B52" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" ht="29.55" spans="1:4">
+      <c r="A53" s="14">
         <v>44</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="B53" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" ht="252.75" customHeight="1" spans="1:4">
+      <c r="A54" s="18">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" ht="29.55" spans="1:4">
-      <c r="A23" s="12">
-        <v>14</v>
-      </c>
-      <c r="B23" s="13" t="s">
+      <c r="B54" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" ht="29.55" spans="1:4">
+      <c r="A55" s="25">
         <v>46</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="B55" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:4">
+      <c r="A56" s="18">
         <v>47</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" ht="43.95" spans="1:4">
-      <c r="A24" s="12">
-        <v>15</v>
-      </c>
-      <c r="B24" s="13" t="s">
+      <c r="B56" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" ht="29.55" spans="1:4">
+      <c r="A57" s="14">
         <v>48</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="B57" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" ht="43.95" spans="1:4">
+      <c r="A58" s="14">
         <v>49</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" ht="43.95" spans="1:4">
-      <c r="A25" s="12">
-        <v>16</v>
-      </c>
-      <c r="B25" s="13" t="s">
+      <c r="B58" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" ht="23.25" customHeight="1" spans="1:4">
+      <c r="A59" s="18">
         <v>50</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" ht="29.55" spans="1:4">
-      <c r="A26" s="12">
-        <v>17</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" ht="29.55" spans="1:4">
-      <c r="A27" s="12">
-        <v>18</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" ht="29.55" spans="1:4">
-      <c r="A28" s="18">
-        <v>19</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" ht="50.25" customHeight="1" spans="1:4">
-      <c r="A29" s="16">
-        <v>20</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" ht="43.95" spans="1:4">
-      <c r="A30" s="12">
-        <v>21</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" ht="43.95" spans="1:4">
-      <c r="A31" s="12">
-        <v>22</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" ht="29.55" spans="1:4">
-      <c r="A32" s="12">
-        <v>23</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" ht="29.55" spans="1:4">
-      <c r="A33" s="12">
-        <v>24</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" ht="29.55" spans="1:4">
-      <c r="A34" s="12">
-        <v>25</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" ht="43.95" spans="1:4">
-      <c r="A35" s="12">
-        <v>26</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" ht="43.95" spans="1:4">
-      <c r="A36" s="12">
-        <v>27</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" ht="29.55" spans="1:4">
-      <c r="A37" s="12">
-        <v>28</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" ht="29.55" spans="1:4">
-      <c r="A38" s="12">
-        <v>29</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" ht="43.95" spans="1:4">
-      <c r="A39" s="18">
-        <v>30</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" ht="43.95" spans="1:4">
-      <c r="A40" s="16">
-        <v>31</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" ht="43.95" spans="1:4">
-      <c r="A41" s="12">
-        <v>32</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" ht="43.95" spans="1:4">
-      <c r="A42" s="12">
-        <v>33</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" ht="43.95" spans="1:4">
-      <c r="A43" s="12">
-        <v>34</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" ht="43.95" spans="1:4">
-      <c r="A44" s="12">
-        <v>35</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" ht="43.95" spans="1:4">
-      <c r="A45" s="12">
-        <v>36</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" ht="72.75" spans="1:4">
-      <c r="A46" s="18">
-        <v>37</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" ht="43.95" spans="1:4">
-      <c r="A47" s="18">
-        <v>38</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" ht="187.95" spans="1:4">
-      <c r="A48" s="18">
-        <v>39</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" ht="173.55" spans="1:4">
-      <c r="A49" s="18">
-        <v>40</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" ht="43.95" spans="1:4">
-      <c r="A50" s="18">
-        <v>41</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" ht="29.55" spans="1:4">
-      <c r="A51" s="18">
-        <v>42</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" ht="43.95" spans="1:4">
-      <c r="A52" s="16">
-        <v>43</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" ht="29.55" spans="1:4">
-      <c r="A53" s="12">
-        <v>44</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" ht="252.75" customHeight="1" spans="1:4">
-      <c r="A54" s="16">
-        <v>45</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" ht="29.55" spans="1:4">
-      <c r="A55" s="22">
-        <v>46</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" ht="13" customHeight="1" spans="1:4">
-      <c r="A56" s="16">
-        <v>47</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" ht="29.55" spans="1:4">
-      <c r="A57" s="12">
-        <v>48</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" ht="43.95" spans="1:4">
-      <c r="A58" s="12">
-        <v>49</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" ht="23.25" customHeight="1" spans="1:4">
-      <c r="A59" s="16">
-        <v>50</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" s="15" t="s">
+      <c r="B59" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D59" s="15" t="s">
-        <v>18</v>
+      <c r="C59" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="61" ht="14.55" spans="1:1">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" ht="15.15" spans="1:4">
-      <c r="A62" s="24">
+      <c r="A62" s="27">
         <v>1</v>
       </c>
-      <c r="B62" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="26" t="s">
+      <c r="B62" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D62" s="26" t="s">
+      <c r="C62" s="29" t="s">
         <v>114</v>
       </c>
+      <c r="D62" s="29" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="63" ht="15.15" spans="1:4">
-      <c r="A63" s="27">
+      <c r="A63" s="30">
         <v>2</v>
       </c>
-      <c r="B63" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C63" s="29" t="s">
+      <c r="B63" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="C63" s="32" t="s">
         <v>117</v>
       </c>
+      <c r="D63" s="33" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="64" ht="15.15" spans="1:4">
-      <c r="A64" s="27">
+      <c r="A64" s="30">
         <v>3</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="33" t="s">
         <v>118</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="66" ht="14.55" spans="1:1">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" ht="29.55" spans="1:6">
-      <c r="A67" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C67" s="25" t="s">
+      <c r="A67" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="C67" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E67" s="25" t="s">
+      <c r="D67" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="F67" s="25" t="s">
+      <c r="E67" s="28" t="s">
         <v>124</v>
       </c>
+      <c r="F67" s="28" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="68" ht="15.15" spans="1:6">
-      <c r="A68" s="27">
+      <c r="A68" s="30">
         <v>1</v>
       </c>
-      <c r="B68" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
+      <c r="B68" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
     </row>
     <row r="69" ht="15.15" spans="1:6">
-      <c r="A69" s="27">
+      <c r="A69" s="30">
         <v>2</v>
       </c>
-      <c r="B69" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
+      <c r="B69" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
     </row>
     <row r="70" ht="15.15" spans="1:6">
-      <c r="A70" s="27">
+      <c r="A70" s="30">
         <v>3</v>
       </c>
-      <c r="B70" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
+      <c r="B70" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
     </row>
     <row r="71" ht="15.15" spans="1:6">
-      <c r="A71" s="27">
+      <c r="A71" s="30">
         <v>4</v>
       </c>
-      <c r="B71" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="31"/>
+      <c r="B71" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="34"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="35"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
     </row>
     <row r="73" ht="29.55" spans="1:1">
-      <c r="A73" s="32" t="s">
-        <v>128</v>
+      <c r="A73" s="37" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="74" ht="15.15" spans="1:6">
-      <c r="A74" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="26" t="s">
+      <c r="A74" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
     </row>
     <row r="75" ht="15.15" spans="1:6">
-      <c r="A75" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B75" s="29" t="s">
+      <c r="A75" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="B75" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="D75" s="26" t="s">
+      <c r="C75" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="E75" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F75" s="35" t="s">
+      <c r="D75" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" s="29" t="s">
         <v>133</v>
       </c>
+      <c r="F75" s="40" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="76" ht="15.15" spans="1:6">
-      <c r="A76" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B76" s="29">
-        <v>-3.39</v>
-      </c>
-      <c r="C76" s="36">
-        <v>-9.03</v>
-      </c>
-      <c r="D76" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="E76" s="29">
-        <v>-7.01</v>
-      </c>
-      <c r="F76" s="36">
-        <v>-12.26</v>
-      </c>
+      <c r="A76" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" s="32"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E76" s="32"/>
+      <c r="F76" s="41"/>
     </row>
     <row r="77" ht="15.15" spans="1:6">
-      <c r="A77" s="34" t="s">
+      <c r="A77" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" s="32"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E77" s="32"/>
+      <c r="F77" s="41"/>
+    </row>
+    <row r="78" ht="15.15" spans="1:6">
+      <c r="A78" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B78" s="32"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E78" s="32"/>
+      <c r="F78" s="41"/>
+    </row>
+    <row r="79" ht="15.15" spans="1:6">
+      <c r="A79" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" s="32"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E79" s="32"/>
+      <c r="F79" s="41"/>
+    </row>
+    <row r="80" ht="15.15" spans="1:6">
+      <c r="A80" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80" s="32"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E80" s="32"/>
+      <c r="F80" s="41"/>
+    </row>
+    <row r="81" ht="15.15" spans="1:6">
+      <c r="A81" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B81" s="32"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E81" s="32"/>
+      <c r="F81" s="41"/>
+    </row>
+    <row r="82" ht="15.15" spans="1:6">
+      <c r="A82" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+    </row>
+    <row r="83" ht="15.15" spans="1:6">
+      <c r="A83" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="40"/>
+    </row>
+    <row r="84" ht="15.15" spans="1:6">
+      <c r="A84" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B77" s="29">
-        <v>-24.32</v>
-      </c>
-      <c r="C77" s="36">
-        <v>-12.08</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="E77" s="29">
-        <v>-21.23</v>
-      </c>
-      <c r="F77" s="36">
-        <v>-14.78</v>
-      </c>
-    </row>
-    <row r="78" ht="15.15" spans="1:6">
-      <c r="A78" s="34" t="s">
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="42"/>
+    </row>
+    <row r="85" ht="15.15" spans="1:6">
+      <c r="A85" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="B78" s="29">
-        <v>-9.46</v>
-      </c>
-      <c r="C78" s="36">
-        <v>-9.57</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E78" s="29">
-        <v>-5.97</v>
-      </c>
-      <c r="F78" s="36">
-        <v>-7.53</v>
-      </c>
-    </row>
-    <row r="79" ht="15.15" spans="1:6">
-      <c r="A79" s="34" t="s">
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="42"/>
+    </row>
+    <row r="86" ht="15.15" spans="1:6">
+      <c r="A86" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="B79" s="29">
-        <v>-22.84</v>
-      </c>
-      <c r="C79" s="36">
-        <v>-13.47</v>
-      </c>
-      <c r="D79" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="E79" s="29">
-        <v>-18.52</v>
-      </c>
-      <c r="F79" s="36">
-        <v>-12.13</v>
-      </c>
-    </row>
-    <row r="80" ht="15.15" spans="1:6">
-      <c r="A80" s="34" t="s">
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="42"/>
+    </row>
+    <row r="87" ht="15.15" spans="1:6">
+      <c r="A87" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="B80" s="29">
-        <v>160</v>
-      </c>
-      <c r="C80" s="36"/>
-      <c r="D80" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E80" s="29">
-        <v>263</v>
-      </c>
-      <c r="F80" s="36">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="81" ht="15.15" spans="1:6">
-      <c r="A81" s="34" t="s">
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="42"/>
+    </row>
+    <row r="88" ht="15.15" spans="1:6">
+      <c r="A88" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="B81" s="29">
-        <v>0</v>
-      </c>
-      <c r="C81" s="36">
-        <v>0</v>
-      </c>
-      <c r="D81" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="E81" s="29">
-        <v>0</v>
-      </c>
-      <c r="F81" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" ht="15.15" spans="1:6">
-      <c r="A82" s="34" t="s">
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="41"/>
+    </row>
+    <row r="89" ht="15.15" spans="1:6">
+      <c r="A89" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-    </row>
-    <row r="83" ht="15.15" spans="1:6">
-      <c r="A83" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="B83" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C83" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="35"/>
-    </row>
-    <row r="84" ht="15.15" spans="1:6">
-      <c r="A84" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B84" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C84" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D84" s="29"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="37"/>
-    </row>
-    <row r="85" ht="15.15" spans="1:6">
-      <c r="A85" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="B85" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C85" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D85" s="29"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="37"/>
-    </row>
-    <row r="86" ht="15.15" spans="1:6">
-      <c r="A86" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B86" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C86" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D86" s="29"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="37"/>
-    </row>
-    <row r="87" ht="15.15" spans="1:6">
-      <c r="A87" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="B87" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C87" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D87" s="29"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="37"/>
-    </row>
-    <row r="88" ht="15.15" spans="1:6">
-      <c r="A88" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="B88" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C88" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="36"/>
-    </row>
-    <row r="89" ht="15.15" spans="1:6">
-      <c r="A89" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="B89" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C89" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="31"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="43"/>
+    </row>
+    <row r="90" s="1" customFormat="1" spans="1:6">
+      <c r="A90" s="44"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="45"/>
     </row>
     <row r="91" ht="43.95" spans="1:1">
-      <c r="A91" s="32" t="s">
+      <c r="A91" s="37" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="92" ht="15.15" spans="1:3">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B92" s="35" t="s">
+      <c r="B92" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="C92" s="35" t="s">
+      <c r="C92" s="40" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="93" ht="15.15" spans="1:3">
-      <c r="A93" s="39" t="s">
+      <c r="A93" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="B93" s="36"/>
-      <c r="C93" s="31"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="34"/>
     </row>
     <row r="95" ht="14.55" spans="1:1">
       <c r="A95" t="s">
@@ -3251,119 +3251,127 @@
       </c>
     </row>
     <row r="96" ht="15.15" spans="1:4">
-      <c r="A96" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B96" s="41" t="s">
+      <c r="A96" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="C96" s="41" t="s">
+      <c r="C96" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="D96" s="41" t="s">
+      <c r="D96" s="49" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="97" ht="29.55" spans="1:4">
-      <c r="A97" s="42">
+      <c r="A97" s="50">
         <v>1</v>
       </c>
-      <c r="B97" s="43" t="s">
+      <c r="B97" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="C97" s="44" t="s">
+      <c r="C97" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="D97" s="43" t="s">
-        <v>100</v>
+      <c r="D97" s="51" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="98" ht="15.15" spans="1:4">
-      <c r="A98" s="42"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="45" t="s">
+      <c r="A98" s="50"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="D98" s="43"/>
+      <c r="D98" s="51"/>
     </row>
     <row r="99" ht="15.15" spans="1:4">
-      <c r="A99" s="42">
+      <c r="A99" s="54">
         <v>2</v>
       </c>
-      <c r="B99" s="43" t="s">
+      <c r="B99" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="C99" s="46" t="s">
+      <c r="C99" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="D99" s="43" t="s">
+      <c r="D99" s="55" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="100" ht="15.15" spans="1:4">
-      <c r="A100" s="42">
+      <c r="A100" s="54">
         <v>3</v>
       </c>
-      <c r="B100" s="43" t="s">
+      <c r="B100" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="C100" s="46"/>
-      <c r="D100" s="43" t="s">
+      <c r="C100" s="56" t="s">
         <v>160</v>
       </c>
+      <c r="D100" s="55" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="101" ht="15.15" spans="1:4">
-      <c r="A101" s="42">
+      <c r="A101" s="50">
         <v>4</v>
       </c>
-      <c r="B101" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C101" s="46"/>
-      <c r="D101" s="43" t="s">
+      <c r="B101" s="51" t="s">
         <v>162</v>
       </c>
+      <c r="C101" s="57"/>
+      <c r="D101" s="51" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="102" ht="15.15" spans="1:4">
-      <c r="A102" s="47">
+      <c r="A102" s="58">
         <v>5</v>
       </c>
-      <c r="B102" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C102" s="43"/>
-      <c r="D102" s="43"/>
+      <c r="B102" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C102" s="51"/>
+      <c r="D102" s="51"/>
     </row>
     <row r="103" ht="15.15" spans="1:4">
-      <c r="A103" s="48">
+      <c r="A103" s="59">
         <v>6</v>
       </c>
-      <c r="B103" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="C103" s="46"/>
-      <c r="D103" s="46"/>
+      <c r="B103" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C103" s="57"/>
+      <c r="D103" s="57"/>
     </row>
     <row r="104" ht="15.15" spans="1:4">
-      <c r="A104" s="42">
+      <c r="A104" s="50">
         <v>7</v>
       </c>
-      <c r="B104" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
+      <c r="B104" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A72:F72"/>
     <mergeCell ref="A74:C74"/>
     <mergeCell ref="D74:F74"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="D82:F82"/>
+    <mergeCell ref="A90:F90"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="C104:D104"/>
